--- a/analises/2023/analise_descritiva/dados/sint_resumo_por_mencoes_terror_2023.xlsx
+++ b/analises/2023/analise_descritiva/dados/sint_resumo_por_mencoes_terror_2023.xlsx
@@ -34,7 +34,7 @@
     <t>taxa_sucesso</t>
   </si>
   <si>
-    <t>valor_sucesso</t>
+    <t>arrecadado_sucesso</t>
   </si>
   <si>
     <t>media_sucesso</t>

--- a/analises/2023/analise_descritiva/dados/sint_resumo_por_mencoes_terror_2023.xlsx
+++ b/analises/2023/analise_descritiva/dados/sint_resumo_por_mencoes_terror_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>geral_modalidade</t>
   </si>
@@ -47,6 +47,15 @@
   </si>
   <si>
     <t>max_sucesso</t>
+  </si>
+  <si>
+    <t>apoio_medio</t>
+  </si>
+  <si>
+    <t>contribuicoes</t>
+  </si>
+  <si>
+    <t>media_contribuicoes</t>
   </si>
   <si>
     <t>aon</t>
@@ -419,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -434,7 +443,7 @@
     <col min="11" max="11" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -468,10 +477,19 @@
       <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B2" t="b">
         <v>0</v>
@@ -483,10 +501,10 @@
         <v>503</v>
       </c>
       <c r="E2" s="1">
-        <v>0.6284644194756555</v>
+        <v>62.84644194756554</v>
       </c>
       <c r="F2" s="1">
-        <v>0.599523241954708</v>
+        <v>59.95232419547079</v>
       </c>
       <c r="G2" s="2">
         <v>14584160.43759302</v>
@@ -503,10 +521,19 @@
       <c r="K2" s="2">
         <v>396557.4961875453</v>
       </c>
+      <c r="L2">
+        <v>94.10714337626324</v>
+      </c>
+      <c r="M2">
+        <v>154974</v>
+      </c>
+      <c r="N2">
+        <v>308.0994035785288</v>
+      </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -518,10 +545,10 @@
         <v>327</v>
       </c>
       <c r="E3" s="1">
-        <v>0.3715355805243445</v>
+        <v>37.15355805243446</v>
       </c>
       <c r="F3" s="1">
-        <v>0.6592741935483871</v>
+        <v>65.92741935483872</v>
       </c>
       <c r="G3" s="2">
         <v>9479119.38973001</v>
@@ -538,10 +565,19 @@
       <c r="K3" s="2">
         <v>679297.6600721752</v>
       </c>
+      <c r="L3">
+        <v>87.3015904523896</v>
+      </c>
+      <c r="M3">
+        <v>108579</v>
+      </c>
+      <c r="N3">
+        <v>332.045871559633</v>
+      </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B4" t="b">
         <v>0</v>
@@ -553,10 +589,10 @@
         <v>710</v>
       </c>
       <c r="E4" s="1">
-        <v>0.5340599455040872</v>
+        <v>53.40599455040872</v>
       </c>
       <c r="F4" s="1">
-        <v>0.9056122448979592</v>
+        <v>90.56122448979592</v>
       </c>
       <c r="G4" s="2">
         <v>7672819.507537683</v>
@@ -573,10 +609,19 @@
       <c r="K4" s="2">
         <v>374565.1458002281</v>
       </c>
+      <c r="L4">
+        <v>86.43287869528324</v>
+      </c>
+      <c r="M4">
+        <v>88772</v>
+      </c>
+      <c r="N4">
+        <v>125.030985915493</v>
+      </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -588,10 +633,10 @@
         <v>673</v>
       </c>
       <c r="E5" s="1">
-        <v>0.4659400544959128</v>
+        <v>46.59400544959128</v>
       </c>
       <c r="F5" s="1">
-        <v>0.9839181286549707</v>
+        <v>98.39181286549707</v>
       </c>
       <c r="G5" s="2">
         <v>10689312.43002142</v>
@@ -608,10 +653,19 @@
       <c r="K5" s="2">
         <v>708972.7845446636</v>
       </c>
+      <c r="L5">
+        <v>93.05249603932496</v>
+      </c>
+      <c r="M5">
+        <v>114874</v>
+      </c>
+      <c r="N5">
+        <v>170.6894502228826</v>
+      </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B6" t="b">
         <v>0</v>
@@ -623,10 +677,10 @@
         <v>126</v>
       </c>
       <c r="E6" s="1">
-        <v>0.8961988304093568</v>
+        <v>89.61988304093568</v>
       </c>
       <c r="F6" s="1">
-        <v>0.2055464926590538</v>
+        <v>20.55464926590538</v>
       </c>
       <c r="G6" s="2">
         <v>33433.96264978863</v>
@@ -643,10 +697,19 @@
       <c r="K6" s="2">
         <v>3475.049171548047</v>
       </c>
+      <c r="L6">
+        <v>18.6886320009998</v>
+      </c>
+      <c r="M6">
+        <v>1789</v>
+      </c>
+      <c r="N6">
+        <v>14.1984126984127</v>
+      </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -658,10 +721,10 @@
         <v>26</v>
       </c>
       <c r="E7" s="1">
-        <v>0.1038011695906433</v>
+        <v>10.38011695906433</v>
       </c>
       <c r="F7" s="1">
-        <v>0.3661971830985916</v>
+        <v>36.61971830985916</v>
       </c>
       <c r="G7" s="2">
         <v>9752.995104996171</v>
@@ -677,6 +740,15 @@
       </c>
       <c r="K7" s="2">
         <v>5087.076865717208</v>
+      </c>
+      <c r="L7">
+        <v>23.27683795941807</v>
+      </c>
+      <c r="M7">
+        <v>419</v>
+      </c>
+      <c r="N7">
+        <v>16.11538461538462</v>
       </c>
     </row>
   </sheetData>
